--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1658925.154090732</v>
+        <v>1662244.700363637</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5178444382804</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="F2" t="n">
-        <v>15.84826192495265</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>176.3594778462591</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>94.42245183795642</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.16030022554292</v>
-      </c>
       <c r="G5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,13 +981,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7.692106705274854</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.0742381263468</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.55829564281238</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>165.7173798661023</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>164.1533724249811</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>86.21539897205298</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>185.6266417984382</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,31 +1367,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1497,7 +1497,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1506,7 +1506,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>118.2781530957599</v>
+        <v>29.90684812882265</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,7 +1625,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,7 +1862,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>95.27003590835632</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>8.085252827476616</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2087,67 +2087,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>230.8744955960827</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2163,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>21.7973599200313</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>109.3578762307425</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2254,55 +2254,55 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H23" t="n">
         <v>241.0142888776591</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8288647492796855</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="I26" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.90925672556489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>43.28989173361599</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>81.0053776549329</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>89.93914640865493</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>170.7632668135831</v>
       </c>
     </row>
     <row r="31">
@@ -3026,70 +3026,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>222.3396163656985</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3111,13 +3111,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>145.1768273149047</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>36.43923176655766</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>32.45190010589728</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>118.3968738826469</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,28 +3545,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>74.21948991234152</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>183.8842973311964</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>13.9434706946005</v>
       </c>
       <c r="H42" t="n">
-        <v>42.93000889176893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,73 +3977,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>7.611499780510863</v>
       </c>
       <c r="H45" t="n">
-        <v>52.64939492479343</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.5008658160403</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>255.5008658160403</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5008658160403</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
-        <v>47.90708355515102</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>436.3367087788394</v>
+        <v>350.8860444944306</v>
       </c>
       <c r="C3" t="n">
-        <v>436.3367087788394</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="D3" t="n">
-        <v>436.3367087788394</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E3" t="n">
-        <v>277.0992537733839</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4413,19 +4413,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4440,19 +4440,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>643.9304910397286</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>436.3367087788394</v>
+        <v>726.6951637753879</v>
       </c>
       <c r="W3" t="n">
-        <v>436.3367087788394</v>
+        <v>726.6951637753879</v>
       </c>
       <c r="X3" t="n">
-        <v>436.3367087788394</v>
+        <v>726.6951637753879</v>
       </c>
       <c r="Y3" t="n">
-        <v>436.3367087788394</v>
+        <v>519.1013815144986</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L4" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M4" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N4" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O4" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R4" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S4" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T4" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U4" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V4" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C5" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D5" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E5" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F5" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="G5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="H5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
         <v>16.44142755506243</v>
@@ -4577,40 +4577,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.3015730003187</v>
+        <v>369.7987346043636</v>
       </c>
       <c r="C6" t="n">
-        <v>814.3015730003187</v>
+        <v>369.7987346043636</v>
       </c>
       <c r="D6" t="n">
-        <v>665.3671633390675</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G6" t="n">
         <v>220.8643249431123</v>
@@ -4647,49 +4647,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>814.3015730003187</v>
+        <v>577.3925168652529</v>
       </c>
       <c r="T6" t="n">
-        <v>814.3015730003187</v>
+        <v>577.3925168652529</v>
       </c>
       <c r="U6" t="n">
-        <v>814.3015730003187</v>
+        <v>577.3925168652529</v>
       </c>
       <c r="V6" t="n">
-        <v>814.3015730003187</v>
+        <v>577.3925168652529</v>
       </c>
       <c r="W6" t="n">
-        <v>814.3015730003187</v>
+        <v>577.3925168652529</v>
       </c>
       <c r="X6" t="n">
-        <v>814.3015730003187</v>
+        <v>577.3925168652529</v>
       </c>
       <c r="Y6" t="n">
-        <v>814.3015730003187</v>
+        <v>369.7987346043636</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.9807105651552</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="C8" t="n">
-        <v>230.9807105651552</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="D8" t="n">
-        <v>230.9807105651552</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="E8" t="n">
-        <v>230.9807105651552</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4805,10 +4805,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>646.1682750869338</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>438.5744928260445</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4896,37 +4896,37 @@
         <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>431.628992076841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>431.628992076841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>431.628992076841</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="D10" t="n">
-        <v>61.19242108896862</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5051,10 +5051,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5081,10 +5081,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.6485894889752</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5121,13 +5121,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
         <v>435.9652341458732</v>
@@ -5145,25 +5145,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>518.7152536647734</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>311.1214714038841</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>191.6485894889752</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="W12" t="n">
-        <v>191.6485894889752</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="X12" t="n">
-        <v>191.6485894889752</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y12" t="n">
-        <v>191.6485894889752</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="13">
@@ -5264,13 +5264,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="C15" t="n">
         <v>814.3015730003187</v>
@@ -5364,43 +5364,43 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>814.3015730003187</v>
       </c>
     </row>
     <row r="16">
@@ -5501,13 +5501,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>249.0657303232264</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="C18" t="n">
-        <v>249.0657303232264</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D18" t="n">
-        <v>249.0657303232264</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E18" t="n">
-        <v>249.0657303232264</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>249.0657303232264</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>955.89023346268</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>955.89023346268</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>727.6666151990692</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>492.5145069673265</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W18" t="n">
-        <v>249.0657303232264</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X18" t="n">
-        <v>249.0657303232264</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y18" t="n">
-        <v>249.0657303232264</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5707,16 +5707,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5786,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>667.4527462414319</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>667.4527462414319</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="V21" t="n">
-        <v>667.4527462414319</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="W21" t="n">
-        <v>667.4527462414319</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="X21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y21" t="n">
-        <v>667.4527462414319</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
         <v>262.7299197543128</v>
@@ -5984,10 +5984,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>454.3181732824481</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C24" t="n">
-        <v>453.4809361619635</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6102,16 +6102,16 @@
         <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X24" t="n">
-        <v>454.3181732824481</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y24" t="n">
-        <v>454.3181732824481</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="25">
@@ -6163,16 +6163,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.2549444941228</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C27" t="n">
-        <v>521.2549444941228</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D27" t="n">
-        <v>521.2549444941228</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>590.936844432622</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>347.488067788522</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>347.488067788522</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="28">
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y29" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>627.7355178317791</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C30" t="n">
-        <v>453.2824885506521</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>453.2824885506521</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>453.2824885506521</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,10 +6549,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>627.7355178317791</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="31">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.4227147053767</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6786,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="W33" t="n">
-        <v>927.2498506959315</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="X33" t="n">
-        <v>719.3983504903987</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="Y33" t="n">
-        <v>511.6380517254448</v>
+        <v>508.4840673845228</v>
       </c>
     </row>
     <row r="34">
@@ -6874,25 +6874,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158.0119685275972</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C36" t="n">
-        <v>158.0119685275972</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D36" t="n">
-        <v>158.0119685275972</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>395.2145629923111</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7020,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>844.4643536089727</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>609.3122453772301</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>365.86346873313</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>158.0119685275972</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>158.0119685275972</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>185.3040866354798</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>185.3040866354798</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>185.3040866354798</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7290,13 +7290,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>778.3154410346802</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>570.4639408291474</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>362.7036420641935</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,10 +7412,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>199.2900309704538</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C42" t="n">
-        <v>199.2900309704538</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D42" t="n">
-        <v>199.2900309704538</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E42" t="n">
-        <v>199.2900309704538</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F42" t="n">
-        <v>199.2900309704538</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="G42" t="n">
-        <v>60.55920555306929</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
         <v>17.19556020784815</v>
@@ -7491,13 +7491,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
         <v>16.44142755506243</v>
@@ -7594,25 +7594,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,7 +7652,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7679,19 +7679,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>244.0756638309303</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="C45" t="n">
-        <v>69.62263454980328</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="D45" t="n">
-        <v>69.62263454980328</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="E45" t="n">
-        <v>69.62263454980328</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="F45" t="n">
-        <v>69.62263454980328</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="G45" t="n">
-        <v>69.62263454980328</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,49 +7728,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>619.8847831118876</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V45" t="n">
-        <v>619.8847831118876</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W45" t="n">
-        <v>619.8847831118876</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X45" t="n">
-        <v>412.2910008509983</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>412.2910008509983</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,13 +8225,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8544,13 +8544,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>213.1865395540696</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,13 +8699,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -9012,19 +9012,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9966,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>269.2526134200356</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23355,7 +23355,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>114.5224340536654</v>
+        <v>202.8937390206026</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,7 +23513,7 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>92.46572744736828</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,7 +23750,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23811,13 +23811,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>77.43846307995942</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23829,10 +23829,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,7 +23859,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>163.5979182763612</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>108.6003065196844</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24051,25 +24051,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>178.3673687747903</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>116.5835058502323</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24142,7 +24142,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H23" t="n">
         <v>98.46051323810809</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,19 +24285,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>171.8796342390361</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>136.4277884031414</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24412,10 +24412,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>287.7526474377897</v>
       </c>
       <c r="I26" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>144.7358237298361</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,19 +24570,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>189.5106954158093</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,10 +24680,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>284.2675141160747</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24768,19 +24768,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>55.13006598472894</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>34.91942896372123</v>
       </c>
     </row>
     <row r="31">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,25 +24959,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7562331984328523</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24999,13 +24999,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>54.98790137991688</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,10 +25056,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>215.2557513943619</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,10 +25154,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,16 +25196,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25214,7 +25214,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.6173122874866</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,16 +25287,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>107.544508198328</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25369,13 +25369,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>182.397745374651</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,28 +25433,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,13 +25470,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,10 +25485,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>38.01595432415495</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>67.81068582972321</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25597,10 +25597,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25719,10 +25719,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>123.4000464686101</v>
       </c>
       <c r="H42" t="n">
-        <v>69.30543534472753</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,22 +25755,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,22 +25865,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>129.7320173826998</v>
       </c>
       <c r="H45" t="n">
-        <v>59.58604931170303</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,25 +25989,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357245.4459423649</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423647</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423649</v>
       </c>
     </row>
     <row r="14">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>212972.8164771577</v>
       </c>
       <c r="F2" t="n">
-        <v>212972.8164771577</v>
+        <v>212972.8164771576</v>
       </c>
       <c r="G2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="H2" t="n">
         <v>224316.9079172986</v>
       </c>
-      <c r="H2" t="n">
-        <v>224316.9079172987</v>
-      </c>
       <c r="I2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="J2" t="n">
-        <v>224316.9079172988</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="L2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172987</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="C4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="D4" t="n">
-        <v>289079.3271252677</v>
+        <v>288691.6857063813</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150127.0260095866</v>
+        <v>150514.6674284729</v>
       </c>
       <c r="C6" t="n">
-        <v>219000.7825912761</v>
+        <v>219388.4240101628</v>
       </c>
       <c r="D6" t="n">
-        <v>219000.7825912762</v>
+        <v>219388.4240101626</v>
       </c>
       <c r="E6" t="n">
-        <v>199935.8785574907</v>
+        <v>200323.519976377</v>
       </c>
       <c r="F6" t="n">
-        <v>199935.8785574906</v>
+        <v>200323.519976377</v>
       </c>
       <c r="G6" t="n">
-        <v>199346.0905092226</v>
+        <v>199754.663681666</v>
       </c>
       <c r="H6" t="n">
-        <v>209075.1334833898</v>
+        <v>209483.706655833</v>
       </c>
       <c r="I6" t="n">
-        <v>209075.1334833897</v>
+        <v>209483.706655833</v>
       </c>
       <c r="J6" t="n">
-        <v>155302.6225931804</v>
+        <v>155711.1957656235</v>
       </c>
       <c r="K6" t="n">
-        <v>209075.1334833897</v>
+        <v>209483.706655833</v>
       </c>
       <c r="L6" t="n">
-        <v>209075.1334833897</v>
+        <v>209483.706655833</v>
       </c>
       <c r="M6" t="n">
-        <v>209075.1334833898</v>
+        <v>209483.706655833</v>
       </c>
       <c r="N6" t="n">
-        <v>209075.1334833897</v>
+        <v>209483.7066558331</v>
       </c>
       <c r="O6" t="n">
-        <v>199935.8785574907</v>
+        <v>200323.519976377</v>
       </c>
       <c r="P6" t="n">
-        <v>199935.8785574906</v>
+        <v>200323.5199763771</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>235.0383253024833</v>
       </c>
       <c r="F2" t="n">
-        <v>391.0277838167588</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27512,10 +27512,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>49.58190423471575</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>138.3781353114688</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27579,7 +27579,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>239.4980740029174</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>385.7157455161685</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,13 +27701,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.46572744736828</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>29.60893297749098</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>49.05569651810566</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.603747608882</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>217.0164617973782</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
+        <v>201.358201303431</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5777282534879</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>85.46777213178484</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>66.06834136248136</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>127.4190336299326</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>124.3999708738849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35264,13 +35264,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>70.5902951096252</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35732,19 +35732,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36686,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,13 +37154,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37388,16 +37388,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38020,10 +38020,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1662244.700363637</v>
+        <v>1663943.115186657</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5594365.784255077</v>
+        <v>5647153.428938792</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>3.015063725959907</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>94.42245183795642</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>55.54022196058087</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,13 +983,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1023,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>142.0742381263468</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>165.7173798661023</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>185.6266417984382</v>
+        <v>90.16066412513263</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>30.14969534436193</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>29.90684812882265</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1613,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>81.78482341792373</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.692106705274854</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1923,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>95.27003590835632</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>236.8762604200974</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2002,55 +2004,55 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2123,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>109.3578762307425</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>204.7452777895381</v>
       </c>
     </row>
     <row r="22">
@@ -2278,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>11.01727716149734</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>43.28989173361599</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,11 +2794,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>83.23127550409603</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>170.7632668135831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>70.73885857389301</v>
       </c>
       <c r="T33" t="n">
-        <v>145.1768273149047</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.73723617201896</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>32.03677880122241</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,22 +3353,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45190010589728</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,11 +3514,11 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>118.2864869391949</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>74.21948991234152</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>13.9434706946005</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>33.19332575419081</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>97.69051294689045</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>7.611499780510863</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,22 +4106,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4138,52 +4140,52 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>50.91422817269779</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>406.8838132313431</v>
+        <v>146.859922150451</v>
       </c>
       <c r="U2" t="n">
-        <v>199.2900309704538</v>
+        <v>146.859922150451</v>
       </c>
       <c r="V2" t="n">
-        <v>199.2900309704538</v>
+        <v>146.859922150451</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.8860444944306</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C3" t="n">
-        <v>176.4330152133036</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>176.4330152133036</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>626.8294255367553</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>726.6951637753879</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W3" t="n">
-        <v>726.6951637753879</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X3" t="n">
-        <v>726.6951637753879</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>519.1013815144986</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.94135112442973</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>63.94135112442973</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>63.94135112442973</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>63.94135112442973</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>63.94135112442973</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>63.94135112442973</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>822.0713777531216</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="C5" t="n">
-        <v>822.0713777531216</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="D5" t="n">
-        <v>822.0713777531216</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="E5" t="n">
-        <v>822.0713777531216</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="F5" t="n">
-        <v>614.4775954922324</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y5" t="n">
-        <v>822.0713777531216</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369.7987346043636</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>369.7987346043636</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>220.8643249431123</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>220.8643249431123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8643249431123</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>577.3925168652529</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>577.3925168652529</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>577.3925168652529</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>577.3925168652529</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>577.3925168652529</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>577.3925168652529</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>369.7987346043636</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>61.19242108896862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>61.19242108896862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>61.19242108896862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>61.19242108896862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>61.19242108896862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>447.0863026981896</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>447.0863026981896</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>447.0863026981896</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>239.4925204373003</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>211.3080142077841</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>619.8847831118876</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>619.8847831118876</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3831247296267</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>651.2927635848137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.4951893506917</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C12" t="n">
-        <v>107.4951893506917</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="D12" t="n">
-        <v>107.4951893506917</v>
+        <v>163.1045164242111</v>
       </c>
       <c r="E12" t="n">
-        <v>107.4951893506917</v>
+        <v>163.1045164242111</v>
       </c>
       <c r="F12" t="n">
-        <v>107.4951893506917</v>
+        <v>163.1045164242111</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4951893506917</v>
+        <v>163.1045164242111</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>49.73538083179044</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>107.4951893506917</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W12" t="n">
-        <v>107.4951893506917</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X12" t="n">
-        <v>107.4951893506917</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.4951893506917</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.3015730003187</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>814.3015730003187</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>814.3015730003187</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>814.3015730003187</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>814.3015730003187</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>814.3015730003187</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W15" t="n">
-        <v>814.3015730003187</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X15" t="n">
-        <v>814.3015730003187</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y15" t="n">
-        <v>814.3015730003187</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>562.4161926976942</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C18" t="n">
-        <v>466.183833194304</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D18" t="n">
-        <v>317.2494235330527</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5595,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W18" t="n">
-        <v>562.4161926976942</v>
+        <v>522.6016109501119</v>
       </c>
       <c r="X18" t="n">
-        <v>562.4161926976942</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y18" t="n">
-        <v>562.4161926976942</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5698,25 +5700,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>376.8211856297825</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V21" t="n">
-        <v>376.8211856297825</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W21" t="n">
-        <v>376.8211856297825</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X21" t="n">
-        <v>168.9696854242497</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5926,28 +5928,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C23" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6029,10 +6031,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.40970589960398</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C24" t="n">
-        <v>30.40970589960398</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>936.3358653523144</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>762.9185208029833</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W24" t="n">
-        <v>446.0215048700907</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X24" t="n">
-        <v>238.1700046645579</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y24" t="n">
-        <v>30.40970589960398</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>179.2727307684539</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C27" t="n">
-        <v>179.2727307684539</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>590.936844432622</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>347.488067788522</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>347.488067788522</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>347.488067788522</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="28">
@@ -6403,10 +6405,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V29" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W29" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.2687303644548</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>605.3982860555079</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y30" t="n">
-        <v>340.2687303644548</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6637,16 +6639,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="W32" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>340.2687303644548</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6791,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="T33" t="n">
-        <v>716.2443661494767</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U33" t="n">
-        <v>716.2443661494767</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V33" t="n">
-        <v>716.2443661494767</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W33" t="n">
-        <v>716.2443661494767</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>716.2443661494767</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>508.4840673845228</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6877,19 +6879,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>475.3318284112885</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>944.1299480494607</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V35" t="n">
-        <v>718.7806050553886</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W35" t="n">
-        <v>718.7806050553886</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>718.7806050553886</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.3318284112885</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.9050472788936</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>554.4520179977666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>554.4520179977666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>395.2145629923111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="37">
@@ -7114,19 +7116,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7160,7 +7162,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="U38" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="V38" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="W38" t="n">
+        <v>509.4769954460863</v>
+      </c>
+      <c r="X38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U38" t="n">
+      <c r="Y38" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>344.5415416409353</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C39" t="n">
-        <v>344.5415416409353</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D39" t="n">
-        <v>344.5415416409353</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E39" t="n">
-        <v>185.3040866354798</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F39" t="n">
-        <v>185.3040866354798</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>185.3040866354798</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="40">
@@ -7360,7 +7362,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.27987404077794</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C42" t="n">
-        <v>31.27987404077794</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D42" t="n">
-        <v>31.27987404077794</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E42" t="n">
-        <v>31.27987404077794</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F42" t="n">
-        <v>31.27987404077794</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>930.5285436377162</v>
       </c>
       <c r="U42" t="n">
-        <v>238.8736563016672</v>
+        <v>702.3049253741053</v>
       </c>
       <c r="V42" t="n">
-        <v>238.8736563016672</v>
+        <v>467.1528171423627</v>
       </c>
       <c r="W42" t="n">
-        <v>238.8736563016672</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X42" t="n">
-        <v>238.8736563016672</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.27987404077794</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>639.2227743377304</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>137.4989467641607</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C45" t="n">
-        <v>137.4989467641607</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D45" t="n">
-        <v>137.4989467641607</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E45" t="n">
-        <v>137.4989467641607</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F45" t="n">
-        <v>137.4989467641607</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>639.4279001397708</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>513.308066045118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>513.308066045118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>305.7142837842288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>339.8103375922893</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>144.0674440055713</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,13 +11302,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,22 +23266,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>59.24693750705315</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>202.8937390206026</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23501,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23549,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823873</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>75.86025703747721</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>92.46572744736828</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23811,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>77.43846307995942</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23859,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>14.81872274082221</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23975,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>279.5921429795728</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>116.5835058502323</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0.9374179877662243</v>
       </c>
     </row>
     <row r="22">
@@ -24166,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>136.4277884031414</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>72.71375689590451</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,10 +24347,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>287.7526474377897</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>24.723995595589</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>189.5106954158093</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S28" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,10 +24682,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>142.7101065768788</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.91942896372123</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>100.9443125299448</v>
       </c>
       <c r="T33" t="n">
-        <v>54.98790137991688</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25117,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25172,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>199.2828334142264</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>134.4964048486449</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,22 +25241,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>112.6173122874866</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>54.42201204912084</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>38.01595432415495</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25600,10 +25602,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>123.4000464686101</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>166.9714029406308</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25865,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>68.84267070297689</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>129.7320173826998</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>339178.9299451032</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>339178.9299451032</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357245.4459423649</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423649</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357245.4459423647</v>
+        <v>357245.4459423649</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423649</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>339178.9299451034</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>339178.9299451032</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="F2" t="n">
-        <v>212972.8164771576</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="G2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
@@ -26341,7 +26343,7 @@
         <v>224316.9079172986</v>
       </c>
       <c r="L2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="M2" t="n">
         <v>224316.9079172986</v>
@@ -26350,10 +26352,10 @@
         <v>224316.9079172987</v>
       </c>
       <c r="O2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="P2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172987</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288691.6857063813</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>288691.6857063813</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>288691.6857063813</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26442,10 +26444,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
         <v>179.5324977039669</v>
@@ -26454,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8115589332268</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150514.6674284729</v>
+        <v>169730.2060089514</v>
       </c>
       <c r="C6" t="n">
-        <v>219388.4240101628</v>
+        <v>166220.5435757981</v>
       </c>
       <c r="D6" t="n">
-        <v>219388.4240101626</v>
+        <v>226796.8657624662</v>
       </c>
       <c r="E6" t="n">
-        <v>200323.519976377</v>
+        <v>209483.7066558331</v>
       </c>
       <c r="F6" t="n">
-        <v>200323.519976377</v>
+        <v>209483.706655833</v>
       </c>
       <c r="G6" t="n">
-        <v>199754.663681666</v>
+        <v>209483.706655833</v>
       </c>
       <c r="H6" t="n">
         <v>209483.706655833</v>
@@ -26543,10 +26545,10 @@
         <v>209483.706655833</v>
       </c>
       <c r="J6" t="n">
-        <v>155711.1957656235</v>
+        <v>195482.4745155537</v>
       </c>
       <c r="K6" t="n">
-        <v>209483.706655833</v>
+        <v>161226.7537222004</v>
       </c>
       <c r="L6" t="n">
         <v>209483.706655833</v>
@@ -26558,10 +26560,10 @@
         <v>209483.7066558331</v>
       </c>
       <c r="O6" t="n">
-        <v>200323.519976377</v>
+        <v>209483.706655833</v>
       </c>
       <c r="P6" t="n">
-        <v>200323.5199763771</v>
+        <v>209483.7066558331</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>235.0383253024833</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>220.0807858381714</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,13 +27511,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>138.3781353114688</v>
+        <v>185.6667515974615</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27555,7 +27557,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27579,13 +27581,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>197.8546884715037</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,10 +27596,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
-        <v>239.4980740029174</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>327.1936197028997</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>234.2826201338976</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27661,7 +27663,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27701,13 +27703,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>29.60893297749098</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>154.8758545618492</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.05569651810566</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.0164617973782</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>149.3681997291715</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27989,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>66.06834136248136</v>
+        <v>161.534319035787</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
-        <v>127.4190336299326</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>197.2140931478448</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>12.72573192223801</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,13 +37785,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1663943.115186657</v>
+        <v>1595091.818745221</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5647153.428938792</v>
+        <v>5647153.428938791</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>9.891109467671333</v>
       </c>
       <c r="T2" t="n">
-        <v>3.015063725959907</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,73 +740,73 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="Y3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>47.13383555196375</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="I4" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.54022196058087</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>51.61139658553443</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>90.16066412513263</v>
+        <v>2.366609375368753</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1369,23 +1369,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>30.14969534436193</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>114.8120867680395</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1527,61 +1527,61 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>81.78482341792373</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3261858846177895</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>33.80371536444976</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>236.8762604200974</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="19">
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>90.16983368421225</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2219,16 +2219,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>204.7452777895381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2280,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>27.44407725673862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,61 +2569,61 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>84.41978777916125</v>
-      </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>97.48188567889163</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2754,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>83.23127550409603</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>98.19508828039903</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>70.73885857389301</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3167,10 +3167,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>62.52515684565935</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.03677880122241</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,61 +3517,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>118.2864869391949</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>39.50465241953221</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>33.19332575419081</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3884,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,67 +3903,67 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,73 +3979,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>88.93311775391584</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.69051294689045</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4109,7 +4109,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>150.9735309556075</v>
       </c>
     </row>
     <row r="46">
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.8068625444412</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8068625444412</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="D2" t="n">
-        <v>92.8068625444412</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="E2" t="n">
-        <v>92.8068625444412</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="F2" t="n">
         <v>85.86136179523773</v>
@@ -4333,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4354,28 +4354,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="T2" t="n">
-        <v>146.859922150451</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="U2" t="n">
-        <v>146.859922150451</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="V2" t="n">
-        <v>146.859922150451</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="W2" t="n">
-        <v>92.8068625444412</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="X2" t="n">
-        <v>92.8068625444412</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.8068625444412</v>
+        <v>139.9144214012476</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3871215328157</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4415,19 +4415,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4439,22 +4439,22 @@
         <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="U3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="V3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="V3" t="n">
-        <v>112.3871215328157</v>
-      </c>
-      <c r="W3" t="n">
-        <v>112.3871215328157</v>
-      </c>
       <c r="X3" t="n">
-        <v>112.3871215328157</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="F4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>58.33406192680583</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.1241971476163</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>513.1241971476163</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>513.1241971476163</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>513.1241971476163</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,10 +4649,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>304.2053859195205</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>226.7653248291326</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>211.3080142077841</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4840,16 +4840,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>526.7184526376595</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C11" t="n">
         <v>262.7299197543128</v>
@@ -5026,10 +5026,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>312.0389260854624</v>
+        <v>369.484465818592</v>
       </c>
       <c r="C12" t="n">
-        <v>312.0389260854624</v>
+        <v>369.484465818592</v>
       </c>
       <c r="D12" t="n">
-        <v>163.1045164242111</v>
+        <v>369.484465818592</v>
       </c>
       <c r="E12" t="n">
-        <v>163.1045164242111</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F12" t="n">
-        <v>163.1045164242111</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G12" t="n">
-        <v>163.1045164242111</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>49.73538083179044</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>848.0853506944347</v>
       </c>
       <c r="U12" t="n">
-        <v>790.6398109613051</v>
+        <v>848.0853506944347</v>
       </c>
       <c r="V12" t="n">
-        <v>555.4877027295624</v>
+        <v>612.9332424626921</v>
       </c>
       <c r="W12" t="n">
-        <v>312.0389260854624</v>
+        <v>369.484465818592</v>
       </c>
       <c r="X12" t="n">
-        <v>312.0389260854624</v>
+        <v>369.484465818592</v>
       </c>
       <c r="Y12" t="n">
-        <v>312.0389260854624</v>
+        <v>369.484465818592</v>
       </c>
     </row>
     <row r="13">
@@ -5229,22 +5229,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="C14" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="D14" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="E14" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E14" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
         <v>262.7299197543128</v>
@@ -5311,19 +5311,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V14" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W14" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X14" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="Y14" t="n">
         <v>559.1338160830064</v>
-      </c>
-      <c r="V14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>452.8495312167552</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C15" t="n">
-        <v>452.8495312167552</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D15" t="n">
-        <v>452.8495312167552</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="E15" t="n">
-        <v>370.2385984713777</v>
+        <v>19.61062380174585</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>660.701031422288</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W15" t="n">
-        <v>660.701031422288</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X15" t="n">
-        <v>452.8495312167552</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y15" t="n">
-        <v>452.8495312167552</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="16">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>929.9119884758385</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>314.750110744579</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>314.750110744579</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>522.6016109501119</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>314.750110744579</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>314.750110744579</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5700,13 +5700,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>461.2466632505798</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>226.0945550188371</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W21" t="n">
-        <v>226.0945550188371</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X21" t="n">
-        <v>226.0945550188371</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>111.1159158480613</v>
       </c>
     </row>
     <row r="22">
@@ -5928,13 +5928,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.6192102101089</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>936.3358653523144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>762.9185208029833</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T24" t="n">
-        <v>560.7319261617492</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>560.7319261617492</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>560.7319261617492</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>560.7319261617492</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>560.7319261617492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6165,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>84.60703932821886</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D27" t="n">
-        <v>84.60703932821886</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E27" t="n">
-        <v>84.60703932821886</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F27" t="n">
-        <v>84.60703932821886</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6402,16 +6402,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>605.3982860555079</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>605.3982860555079</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>361.9495094114078</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X30" t="n">
-        <v>361.9495094114078</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,16 +6806,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>892.6037630117544</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>690.4171683705204</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>462.1935501069094</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>227.0414418751666</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
         <v>227.0414418751666</v>
@@ -6885,13 +6885,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>226.0945550188371</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>226.0945550188371</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>226.0945550188371</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>226.0945550188371</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,28 +7119,28 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>252.1315786412141</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D39" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E39" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7265,40 +7265,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>924.1534661979774</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>750.7361216486463</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>750.7361216486463</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>750.7361216486463</v>
       </c>
       <c r="V39" t="n">
-        <v>252.1315786412141</v>
+        <v>515.5840134169036</v>
       </c>
       <c r="W39" t="n">
-        <v>252.1315786412141</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X39" t="n">
-        <v>252.1315786412141</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y39" t="n">
-        <v>252.1315786412141</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="40">
@@ -7365,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C42" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>930.5285436377162</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>702.3049253741053</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>467.1528171423627</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>382.9414955037181</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C45" t="n">
-        <v>382.9414955037181</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D45" t="n">
-        <v>382.9414955037181</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E45" t="n">
-        <v>223.7040404982626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7733,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7757,22 +7757,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X45" t="n">
-        <v>481.618781308658</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y45" t="n">
-        <v>481.618781308658</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="46">
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
         <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9497,7 +9497,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10913,16 +10913,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11381,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>59.24693750705315</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23387,10 +23387,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>85.35264192678214</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23503,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23551,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>275.3266899823873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>75.86025703747721</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>144.7430265087661</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,13 +23633,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23752,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>116.0654025766999</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23816,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.81872274082221</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23977,10 +23977,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>279.5921429795728</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>67.47524677118869</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.9374179877662243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24168,16 +24168,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>72.71375689590451</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>166.9258651286752</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>47.58732671449225</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>24.723995595589</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24642,19 +24642,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24682,13 +24682,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24730,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>142.7101065768788</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>107.5778969230784</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24976,10 +24976,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>100.9443125299448</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>344.0891364002832</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>134.4964048486449</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>132.8070558482636</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>366.4657846212723</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>54.42201204912084</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>60.65318173311093</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C41" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25724,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>166.9714029406308</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>265.7499238667671</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>68.84267070297689</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,19 +25952,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>54.70916482169682</v>
       </c>
     </row>
     <row r="46">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423649</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423647</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357245.4459423649</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357245.4459423649</v>
+        <v>357245.4459423647</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357245.4459423649</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357245.4459423649</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357245.4459423649</v>
+        <v>357245.4459423648</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423647</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357245.4459423648</v>
+        <v>357245.4459423649</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172987</v>
       </c>
       <c r="F2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="G2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="G2" t="n">
-        <v>224316.9079172986</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="I2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="J2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="K2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="L2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
         <v>224316.9079172986</v>
@@ -26355,7 +26355,7 @@
         <v>224316.9079172986</v>
       </c>
       <c r="P2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321633</v>
@@ -26429,7 +26429,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169730.2060089514</v>
+        <v>169730.2060089516</v>
       </c>
       <c r="C6" t="n">
-        <v>166220.5435757981</v>
+        <v>166220.5435757983</v>
       </c>
       <c r="D6" t="n">
-        <v>226796.8657624662</v>
+        <v>226796.8657624665</v>
       </c>
       <c r="E6" t="n">
-        <v>209483.7066558331</v>
+        <v>197265.6960357926</v>
       </c>
       <c r="F6" t="n">
-        <v>209483.706655833</v>
+        <v>197265.6960357925</v>
       </c>
       <c r="G6" t="n">
-        <v>209483.706655833</v>
+        <v>197265.6960357926</v>
       </c>
       <c r="H6" t="n">
-        <v>209483.706655833</v>
+        <v>197265.6960357925</v>
       </c>
       <c r="I6" t="n">
-        <v>209483.706655833</v>
+        <v>197265.6960357926</v>
       </c>
       <c r="J6" t="n">
-        <v>195482.4745155537</v>
+        <v>183264.4638955133</v>
       </c>
       <c r="K6" t="n">
-        <v>161226.7537222004</v>
+        <v>149008.7431021599</v>
       </c>
       <c r="L6" t="n">
-        <v>209483.706655833</v>
+        <v>197265.6960357925</v>
       </c>
       <c r="M6" t="n">
-        <v>209483.706655833</v>
+        <v>197265.6960357925</v>
       </c>
       <c r="N6" t="n">
-        <v>209483.7066558331</v>
+        <v>197265.6960357926</v>
       </c>
       <c r="O6" t="n">
-        <v>209483.706655833</v>
+        <v>197265.6960357925</v>
       </c>
       <c r="P6" t="n">
-        <v>209483.7066558331</v>
+        <v>197265.6960357925</v>
       </c>
     </row>
   </sheetData>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>199.128960118574</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0807858381714</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>185.6667515974615</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.3857409777716</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27554,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
         <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>197.8546884715037</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>327.1936197028997</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>161.0465736907239</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>95.83366897910432</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>154.8758545618492</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>151.0558744761791</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>149.3681997291715</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>161.534319035787</v>
+        <v>249.3283737855509</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36217,7 +36217,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
